--- a/biology/Botanique/Glaucium/Glaucium.xlsx
+++ b/biology/Botanique/Glaucium/Glaucium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Glaucium, parfois francisé en glaucienne, est un genre de plantes à fleurs appartenant à la famille des Papavéracées. Comme les pavots, les glauciennes ont des fleurs assez grandes à quatre pétales larges, avec de très nombreuses étamines. Par contre, alors que les pavots ont un style, puis un fruit portant plusieurs stigmates en rayons, le style des glauciennes n'a que deux stigmates, et le fruit est très allongé, pouvant dépasser 20 centimètres. La tige et les feuilles sont glauques, d'où le nom scientifique du genre. Les feuilles sont très divisées, à lobes irréguliers.
 Les glauciennes sont aussi appelées « pavots cornus ». Il en existe essentiellement deux espèces :
@@ -513,7 +525,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Glaucium flavum var. leiocarpum, à Djerba
